--- a/results/yq_test/Wstate_cz/Rb2Re4/cz_2q_wstate_indep_qiskit_12.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Wstate_cz/Rb2Re4/cz_2q_wstate_indep_qiskit_12.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01625609397888184</v>
+        <v>0.0006570816040039062</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001028060913085938</v>
+        <v>0.0005791187286376953</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0002901554107666016</v>
+        <v>0.006960153579711914</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(2, 3), (2, 1), (2, 0), (2, 2), (1, 3), (1, 1), (1, 0), (1, 2), (0, 3), (0, 2), (0, 1), (0, 0)]</t>
+          <t>[[2, 3], [2, 1], [2, 0], [2, 2], [1, 3], [1, 1], [1, 0], [1, 2], [0, 3], [0, 2], [0, 1], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -684,110 +684,120 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02070093154907227</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.01338601112365723</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
